--- a/数据整理/stocks/港股/01024-快手科技.xlsx
+++ b/数据整理/stocks/港股/01024-快手科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01024-快手科技.xlsx
+++ b/数据整理/stocks/港股/01024-快手科技.xlsx
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01024-快手科技.xlsx
+++ b/数据整理/stocks/港股/01024-快手科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.71</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>277.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>33.2081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1675,13 +1718,8088 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>224.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>22.2251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>397.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.7763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.0782</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>154.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.9226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.7241</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4889</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2702</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.1367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7991</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3490</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>71.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2605</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2602</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.1578</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.1478</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.9748</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.8961</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.8127</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7902</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2903</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2744</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2744</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1462</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1363</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9473</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9358</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9342</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9031</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9021</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8879</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8850</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8671</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8305</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8220</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8108</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7885</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7854</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7469</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7154</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6591</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6349</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6349</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6349</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5571</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5565</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5396</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5383</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5291</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5242</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5186</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4953</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3631</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>96.95</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>011452</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>212</v>
+      </c>
+      <c r="D2" t="n">
+        <v>169.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>16.11</v>
       </c>
     </row>
